--- a/reports/For Winter Ending (Actual)_Weather.xlsx
+++ b/reports/For Winter Ending (Actual)_Weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1210,6 +1210,168 @@
         <v>17</v>
       </c>
     </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2">
+        <v>45994.33344841435</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2">
+        <v>7</v>
+      </c>
+      <c r="E33" s="2">
+        <v>18</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2">
+        <v>45995.33342951389</v>
+      </c>
+      <c r="B34" s="2">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2">
+        <v>9</v>
+      </c>
+      <c r="E34" s="2">
+        <v>21</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="2">
+        <v>45996.33342646991</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2">
+        <v>9</v>
+      </c>
+      <c r="E35" s="2">
+        <v>21</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2">
+        <v>45997.33345454861</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>7</v>
+      </c>
+      <c r="E36" s="2">
+        <v>21</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2">
+        <v>45998.33342789352</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2">
+        <v>21</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2">
+        <v>45999.33342905092</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2">
+        <v>21</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2">
+        <v>46000.33342068287</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2">
+        <v>17</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="2">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/reports/For Winter Ending (Actual)_Weather.xlsx
+++ b/reports/For Winter Ending (Actual)_Weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
   <si>
     <t>date</t>
   </si>
@@ -43,28 +43,25 @@
     <t>Sunny</t>
   </si>
   <si>
-    <t>Partly Sunny</t>
+    <t>Windy</t>
+  </si>
+  <si>
+    <t>Cloudy</t>
   </si>
   <si>
     <t>Mostly Sunny</t>
   </si>
   <si>
-    <t>Slight Chance Showers then Showers</t>
-  </si>
-  <si>
-    <t>Slight Chance Snow Showers then Partly Sunny</t>
-  </si>
-  <si>
-    <t>Cloudy</t>
-  </si>
-  <si>
-    <t>Snow</t>
+    <t>Mostly Cloudy</t>
+  </si>
+  <si>
+    <t>Snow &amp; Wind</t>
+  </si>
+  <si>
+    <t>Snow Showers</t>
   </si>
   <si>
     <t>Partly Cloudy</t>
-  </si>
-  <si>
-    <t>Mostly Cloudy</t>
   </si>
 </sst>
 </file>
@@ -436,7 +433,7 @@
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="46.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -468,7 +465,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>45962.33342103009</v>
+        <v>45962.33341539352</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -482,17 +479,19 @@
       <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>45963.33342369213</v>
+        <v>45963.33341565972</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -506,17 +505,19 @@
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="2">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>45964.33343229166</v>
+        <v>45964.33342584491</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -530,7 +531,9 @@
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
@@ -540,7 +543,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>45965.33345543982</v>
+        <v>45965.33344675926</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -554,17 +557,19 @@
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
       <c r="G5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>45966.33348032407</v>
+        <v>45966.33347010417</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -578,17 +583,19 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>45967.33342908565</v>
+        <v>45967.33341975694</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -602,17 +609,19 @@
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="2">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>45968.33342693287</v>
+        <v>45968.33342121528</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -626,17 +635,19 @@
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="2">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>45969.33342809028</v>
+        <v>45969.33342283565</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -650,17 +661,19 @@
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
       <c r="G9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>45970.33342017361</v>
+        <v>45970.33341496528</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -674,17 +687,19 @@
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>45971.33343005787</v>
+        <v>45971.33342461805</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -698,17 +713,19 @@
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>45972.33342658565</v>
+        <v>45972.33342079861</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -722,17 +739,19 @@
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <v>45973.33342403935</v>
+        <v>45973.33341878472</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -746,7 +765,9 @@
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
       <c r="G13" s="2" t="s">
         <v>10</v>
       </c>
@@ -756,7 +777,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <v>45974.33344872685</v>
+        <v>45974.33344325231</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -770,17 +791,19 @@
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
       <c r="G14" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H14" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>45976.33344140046</v>
+        <v>45976.33343491898</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -794,17 +817,19 @@
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
       <c r="G15" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H15" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2">
-        <v>45977.33341334491</v>
+        <v>45977.33340795139</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -818,233 +843,253 @@
       <c r="E16" s="2">
         <v>0</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
       <c r="G16" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H16" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>45978.33343012731</v>
+        <v>45978.33342434028</v>
       </c>
       <c r="B17" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
       <c r="G17" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H17" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>45979.33341640046</v>
+        <v>45979.33341079861</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2">
+        <v>3</v>
+      </c>
       <c r="G18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
-        <v>45980.33342959491</v>
+        <v>45980.33342210648</v>
       </c>
       <c r="B19" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2">
+        <v>9</v>
+      </c>
       <c r="G19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>45981.33354302083</v>
+        <v>45981.33352476852</v>
       </c>
       <c r="B20" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2">
+        <v>37</v>
+      </c>
       <c r="G20" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H20" s="2">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
-        <v>45982.33343677083</v>
+        <v>45982.3334303588</v>
       </c>
       <c r="B21" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C21" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="F21" s="2">
+        <v>47</v>
+      </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H21" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>45983.33343506944</v>
+        <v>45983.33342885417</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D22" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="F22" s="2">
+        <v>47</v>
+      </c>
       <c r="G22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2">
-        <v>45984.33341547454</v>
+        <v>45984.33340925926</v>
       </c>
       <c r="B23" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="F23" s="2">
+        <v>56</v>
+      </c>
       <c r="G23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2">
-        <v>45985.33342114584</v>
+        <v>45985.33341565972</v>
       </c>
       <c r="B24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="F24" s="2">
+        <v>57</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2">
-        <v>45986.33342103009</v>
+        <v>45986.33341547454</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="F25" s="2">
+        <v>57</v>
+      </c>
       <c r="G25" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H25" s="2">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2">
-        <v>45987.33344440972</v>
+        <v>45987.33343417824</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -1053,22 +1098,24 @@
         <v>0</v>
       </c>
       <c r="D26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="F26" s="2">
+        <v>57</v>
+      </c>
       <c r="G26" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H26" s="2">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2">
-        <v>45988.33342152778</v>
+        <v>45988.3334147338</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -1080,19 +1127,21 @@
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="F27" s="2">
+        <v>57</v>
+      </c>
       <c r="G27" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H27" s="2">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2">
-        <v>45989.33345181713</v>
+        <v>45989.33344471065</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -1104,19 +1153,21 @@
         <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>6</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="F28" s="2">
+        <v>57</v>
+      </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H28" s="2">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2">
-        <v>45990.33342337963</v>
+        <v>45990.33341678241</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -1128,19 +1179,21 @@
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <v>6</v>
-      </c>
-      <c r="F29" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="F29" s="2">
+        <v>57</v>
+      </c>
       <c r="G29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2">
-        <v>45991.33342792824</v>
+        <v>45991.3334181713</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -1152,83 +1205,91 @@
         <v>0</v>
       </c>
       <c r="E30" s="2">
-        <v>6</v>
-      </c>
-      <c r="F30" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="F30" s="2">
+        <v>57</v>
+      </c>
       <c r="G30" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H30" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2">
-        <v>45992.33342291666</v>
+        <v>45992.33341655093</v>
       </c>
       <c r="B31" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C31" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31" s="2">
-        <v>6</v>
-      </c>
-      <c r="F31" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F31" s="2">
+        <v>57</v>
+      </c>
       <c r="G31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H31" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2">
-        <v>45993.33341936343</v>
+        <v>45993.33341288195</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
       </c>
       <c r="C32" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D32" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2">
-        <v>6</v>
-      </c>
-      <c r="F32" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F32" s="2">
+        <v>57</v>
+      </c>
       <c r="G32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H32" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2">
-        <v>45994.33344841435</v>
+        <v>45994.33343938657</v>
       </c>
       <c r="B33" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C33" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D33" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2">
-        <v>18</v>
-      </c>
-      <c r="F33" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="F33" s="2">
+        <v>57</v>
+      </c>
       <c r="G33" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H33" s="2">
         <v>16</v>
@@ -1236,123 +1297,137 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2">
-        <v>45995.33342951389</v>
+        <v>45995.33342202546</v>
       </c>
       <c r="B34" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C34" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D34" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E34" s="2">
-        <v>21</v>
-      </c>
-      <c r="F34" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F34" s="2">
+        <v>60</v>
+      </c>
       <c r="G34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="2">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2">
-        <v>45996.33342646991</v>
+        <v>45996.33342037037</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
       </c>
       <c r="C35" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D35" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E35" s="2">
-        <v>21</v>
-      </c>
-      <c r="F35" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="F35" s="2">
+        <v>60</v>
+      </c>
       <c r="G35" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H35" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2">
-        <v>45997.33345454861</v>
+        <v>45997.33344641203</v>
       </c>
       <c r="B36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E36" s="2">
-        <v>21</v>
-      </c>
-      <c r="F36" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F36" s="2">
+        <v>60</v>
+      </c>
       <c r="G36" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H36" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2">
-        <v>45998.33342789352</v>
+        <v>45998.33342133102</v>
       </c>
       <c r="B37" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C37" s="2">
-        <v>3</v>
-      </c>
-      <c r="D37" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
       <c r="E37" s="2">
-        <v>21</v>
-      </c>
-      <c r="F37" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F37" s="2">
+        <v>60</v>
+      </c>
       <c r="G37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H37" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2">
-        <v>45999.33342905092</v>
+        <v>45999.33342280093</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
       </c>
       <c r="C38" s="2">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
       <c r="E38" s="2">
-        <v>21</v>
-      </c>
-      <c r="F38" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F38" s="2">
+        <v>60</v>
+      </c>
       <c r="G38" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H38" s="2">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2">
-        <v>46000.33342068287</v>
+        <v>46000.33341339121</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -1360,16 +1435,20 @@
       <c r="C39" s="2">
         <v>0</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
       <c r="E39" s="2">
-        <v>17</v>
-      </c>
-      <c r="F39" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F39" s="2">
+        <v>60</v>
+      </c>
       <c r="G39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="2">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Actual)_Weather.xlsx
+++ b/reports/For Winter Ending (Actual)_Weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -43,25 +43,28 @@
     <t>Sunny</t>
   </si>
   <si>
-    <t>Windy</t>
+    <t>Partly Sunny</t>
+  </si>
+  <si>
+    <t>Mostly Sunny</t>
+  </si>
+  <si>
+    <t>Slight Chance Showers then Showers</t>
+  </si>
+  <si>
+    <t>Slight Chance Snow Showers then Partly Sunny</t>
   </si>
   <si>
     <t>Cloudy</t>
   </si>
   <si>
-    <t>Mostly Sunny</t>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>Partly Cloudy</t>
   </si>
   <si>
     <t>Mostly Cloudy</t>
-  </si>
-  <si>
-    <t>Snow &amp; Wind</t>
-  </si>
-  <si>
-    <t>Snow Showers</t>
-  </si>
-  <si>
-    <t>Partly Cloudy</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -465,7 +468,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>45962.33341539352</v>
+        <v>45962.33342103009</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -479,19 +482,17 @@
       <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>45963.33341565972</v>
+        <v>45963.33342369213</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -505,19 +506,17 @@
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="2">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>45964.33342584491</v>
+        <v>45964.33343229166</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -531,9 +530,7 @@
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
@@ -543,7 +540,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>45965.33344675926</v>
+        <v>45965.33345543982</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -557,19 +554,17 @@
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H5" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>45966.33347010417</v>
+        <v>45966.33348032407</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -583,19 +578,17 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>45967.33341975694</v>
+        <v>45967.33342908565</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -609,19 +602,17 @@
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" s="2">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>45968.33342121528</v>
+        <v>45968.33342693287</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -635,19 +626,17 @@
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="2">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>45969.33342283565</v>
+        <v>45969.33342809028</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -661,19 +650,17 @@
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>45970.33341496528</v>
+        <v>45970.33342017361</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -687,19 +674,17 @@
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="2">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>45971.33342461805</v>
+        <v>45971.33343005787</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -713,19 +698,17 @@
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>45972.33342079861</v>
+        <v>45972.33342658565</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -739,19 +722,17 @@
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <v>45973.33341878472</v>
+        <v>45973.33342403935</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -765,9 +746,7 @@
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
         <v>10</v>
       </c>
@@ -777,7 +756,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <v>45974.33344325231</v>
+        <v>45974.33344872685</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -791,19 +770,17 @@
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H14" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>45976.33343491898</v>
+        <v>45976.33344140046</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -817,19 +794,17 @@
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H15" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2">
-        <v>45977.33340795139</v>
+        <v>45977.33341334491</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -843,253 +818,233 @@
       <c r="E16" s="2">
         <v>0</v>
       </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H16" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>45978.33342434028</v>
+        <v>45978.33343012731</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="2">
-        <v>3</v>
-      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H17" s="2">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>45979.33341079861</v>
+        <v>45979.33341640046</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
-      <c r="F18" s="2">
-        <v>3</v>
-      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="2">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
-        <v>45980.33342210648</v>
+        <v>45980.33342959491</v>
       </c>
       <c r="B19" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="2">
-        <v>9</v>
-      </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>45981.33352476852</v>
+        <v>45981.33354302083</v>
       </c>
       <c r="B20" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
       </c>
-      <c r="F20" s="2">
-        <v>37</v>
-      </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H20" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
-        <v>45982.3334303588</v>
+        <v>45982.33343677083</v>
       </c>
       <c r="B21" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>37</v>
-      </c>
-      <c r="F21" s="2">
-        <v>47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H21" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>45983.33342885417</v>
+        <v>45983.33343506944</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
       </c>
       <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="2">
-        <v>16</v>
-      </c>
-      <c r="E22" s="2">
-        <v>37</v>
-      </c>
-      <c r="F22" s="2">
-        <v>47</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="H22" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2">
-        <v>45984.33340925926</v>
+        <v>45984.33341547454</v>
       </c>
       <c r="B23" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C23" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>37</v>
-      </c>
-      <c r="F23" s="2">
-        <v>56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2">
-        <v>45985.33341565972</v>
+        <v>45985.33342114584</v>
       </c>
       <c r="B24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>42</v>
-      </c>
-      <c r="F24" s="2">
-        <v>57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2">
-        <v>45986.33341547454</v>
+        <v>45986.33342103009</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>40</v>
-      </c>
-      <c r="F25" s="2">
-        <v>57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H25" s="2">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2">
-        <v>45987.33343417824</v>
+        <v>45987.33344440972</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -1098,24 +1053,22 @@
         <v>0</v>
       </c>
       <c r="D26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>29</v>
-      </c>
-      <c r="F26" s="2">
-        <v>57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H26" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2">
-        <v>45988.3334147338</v>
+        <v>45988.33342152778</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -1127,21 +1080,19 @@
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>29</v>
-      </c>
-      <c r="F27" s="2">
-        <v>57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H27" s="2">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2">
-        <v>45989.33344471065</v>
+        <v>45989.33345181713</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -1153,21 +1104,19 @@
         <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>38</v>
-      </c>
-      <c r="F28" s="2">
-        <v>57</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H28" s="2">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2">
-        <v>45990.33341678241</v>
+        <v>45990.33342337963</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -1179,21 +1128,19 @@
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <v>38</v>
-      </c>
-      <c r="F29" s="2">
-        <v>57</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="2">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2">
-        <v>45991.3334181713</v>
+        <v>45991.33342792824</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -1205,91 +1152,83 @@
         <v>0</v>
       </c>
       <c r="E30" s="2">
-        <v>38</v>
-      </c>
-      <c r="F30" s="2">
-        <v>57</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H30" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2">
-        <v>45992.33341655093</v>
+        <v>45992.33342291666</v>
       </c>
       <c r="B31" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C31" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31" s="2">
-        <v>34</v>
-      </c>
-      <c r="F31" s="2">
-        <v>57</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H31" s="2">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2">
-        <v>45993.33341288195</v>
+        <v>45993.33341936343</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
       </c>
       <c r="C32" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D32" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E32" s="2">
-        <v>34</v>
-      </c>
-      <c r="F32" s="2">
-        <v>57</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H32" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2">
-        <v>45994.33343938657</v>
+        <v>45994.33344841435</v>
       </c>
       <c r="B33" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C33" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D33" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E33" s="2">
-        <v>33</v>
-      </c>
-      <c r="F33" s="2">
-        <v>57</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H33" s="2">
         <v>16</v>
@@ -1297,137 +1236,123 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2">
-        <v>45995.33342202546</v>
+        <v>45995.33342951389</v>
       </c>
       <c r="B34" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C34" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E34" s="2">
-        <v>34</v>
-      </c>
-      <c r="F34" s="2">
-        <v>60</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2">
-        <v>45996.33342037037</v>
+        <v>45996.33342646991</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
       </c>
       <c r="C35" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D35" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E35" s="2">
-        <v>35</v>
-      </c>
-      <c r="F35" s="2">
-        <v>60</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" s="2">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2">
-        <v>45997.33344641203</v>
+        <v>45997.33345454861</v>
       </c>
       <c r="B36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E36" s="2">
-        <v>34</v>
-      </c>
-      <c r="F36" s="2">
-        <v>60</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H36" s="2">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2">
-        <v>45998.33342133102</v>
+        <v>45998.33342789352</v>
       </c>
       <c r="B37" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C37" s="2">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="2">
-        <v>32</v>
-      </c>
-      <c r="F37" s="2">
-        <v>60</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H37" s="2">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2">
-        <v>45999.33342280093</v>
+        <v>45999.33342905092</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
       </c>
       <c r="C38" s="2">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="2">
-        <v>32</v>
-      </c>
-      <c r="F38" s="2">
-        <v>60</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H38" s="2">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2">
-        <v>46000.33341339121</v>
+        <v>46000.33342068287</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -1435,20 +1360,16 @@
       <c r="C39" s="2">
         <v>0</v>
       </c>
-      <c r="D39" s="2">
-        <v>0</v>
-      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="2">
-        <v>31</v>
-      </c>
-      <c r="F39" s="2">
-        <v>60</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="2">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Actual)_Weather.xlsx
+++ b/reports/For Winter Ending (Actual)_Weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1372,6 +1372,28 @@
         <v>26</v>
       </c>
     </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2">
+        <v>46001.33341871528</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2">
+        <v>16</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="2">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/reports/For Winter Ending (Actual)_Weather.xlsx
+++ b/reports/For Winter Ending (Actual)_Weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="16">
   <si>
     <t>date</t>
   </si>
@@ -43,28 +43,25 @@
     <t>Sunny</t>
   </si>
   <si>
-    <t>Partly Sunny</t>
+    <t>Windy</t>
+  </si>
+  <si>
+    <t>Cloudy</t>
   </si>
   <si>
     <t>Mostly Sunny</t>
   </si>
   <si>
-    <t>Slight Chance Showers then Showers</t>
-  </si>
-  <si>
-    <t>Slight Chance Snow Showers then Partly Sunny</t>
-  </si>
-  <si>
-    <t>Cloudy</t>
-  </si>
-  <si>
-    <t>Snow</t>
+    <t>Mostly Cloudy</t>
+  </si>
+  <si>
+    <t>Snow &amp; Wind</t>
+  </si>
+  <si>
+    <t>Snow Showers</t>
   </si>
   <si>
     <t>Partly Cloudy</t>
-  </si>
-  <si>
-    <t>Mostly Cloudy</t>
   </si>
 </sst>
 </file>
@@ -436,7 +433,7 @@
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="46.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -468,7 +465,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>45962.33342103009</v>
+        <v>45962.33341539352</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -482,17 +479,19 @@
       <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>45963.33342369213</v>
+        <v>45963.33341565972</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -506,17 +505,19 @@
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="2">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>45964.33343229166</v>
+        <v>45964.33342584491</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -530,7 +531,9 @@
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
@@ -540,7 +543,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>45965.33345543982</v>
+        <v>45965.33344675926</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -554,17 +557,19 @@
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
       <c r="G5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>45966.33348032407</v>
+        <v>45966.33347010417</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -578,17 +583,19 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>45967.33342908565</v>
+        <v>45967.33341975694</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -602,17 +609,19 @@
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="2">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>45968.33342693287</v>
+        <v>45968.33342121528</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -626,17 +635,19 @@
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="2">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>45969.33342809028</v>
+        <v>45969.33342283565</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -650,17 +661,19 @@
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
       <c r="G9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>45970.33342017361</v>
+        <v>45970.33341496528</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -674,17 +687,19 @@
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>45971.33343005787</v>
+        <v>45971.33342461805</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -698,17 +713,19 @@
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>45972.33342658565</v>
+        <v>45972.33342079861</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -722,17 +739,19 @@
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <v>45973.33342403935</v>
+        <v>45973.33341878472</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -746,7 +765,9 @@
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
       <c r="G13" s="2" t="s">
         <v>10</v>
       </c>
@@ -756,7 +777,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <v>45974.33344872685</v>
+        <v>45974.33344325231</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -770,17 +791,19 @@
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
       <c r="G14" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H14" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>45976.33344140046</v>
+        <v>45976.33343491898</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -794,17 +817,19 @@
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
       <c r="G15" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H15" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2">
-        <v>45977.33341334491</v>
+        <v>45977.33340795139</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -818,233 +843,253 @@
       <c r="E16" s="2">
         <v>0</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
       <c r="G16" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H16" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>45978.33343012731</v>
+        <v>45978.33342434028</v>
       </c>
       <c r="B17" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
       <c r="G17" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H17" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>45979.33341640046</v>
+        <v>45979.33341079861</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2">
+        <v>3</v>
+      </c>
       <c r="G18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
-        <v>45980.33342959491</v>
+        <v>45980.33342210648</v>
       </c>
       <c r="B19" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2">
+        <v>9</v>
+      </c>
       <c r="G19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>45981.33354302083</v>
+        <v>45981.33352476852</v>
       </c>
       <c r="B20" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2">
+        <v>37</v>
+      </c>
       <c r="G20" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H20" s="2">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
-        <v>45982.33343677083</v>
+        <v>45982.3334303588</v>
       </c>
       <c r="B21" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C21" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="F21" s="2">
+        <v>47</v>
+      </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H21" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>45983.33343506944</v>
+        <v>45983.33342885417</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D22" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="F22" s="2">
+        <v>47</v>
+      </c>
       <c r="G22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2">
-        <v>45984.33341547454</v>
+        <v>45984.33340925926</v>
       </c>
       <c r="B23" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="F23" s="2">
+        <v>56</v>
+      </c>
       <c r="G23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2">
-        <v>45985.33342114584</v>
+        <v>45985.33341565972</v>
       </c>
       <c r="B24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="F24" s="2">
+        <v>57</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2">
-        <v>45986.33342103009</v>
+        <v>45986.33341547454</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="F25" s="2">
+        <v>57</v>
+      </c>
       <c r="G25" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H25" s="2">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2">
-        <v>45987.33344440972</v>
+        <v>45987.33343417824</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -1053,22 +1098,24 @@
         <v>0</v>
       </c>
       <c r="D26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="F26" s="2">
+        <v>57</v>
+      </c>
       <c r="G26" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H26" s="2">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2">
-        <v>45988.33342152778</v>
+        <v>45988.3334147338</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -1080,19 +1127,21 @@
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="F27" s="2">
+        <v>57</v>
+      </c>
       <c r="G27" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H27" s="2">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2">
-        <v>45989.33345181713</v>
+        <v>45989.33344471065</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -1104,19 +1153,21 @@
         <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>6</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="F28" s="2">
+        <v>57</v>
+      </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H28" s="2">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2">
-        <v>45990.33342337963</v>
+        <v>45990.33341678241</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -1128,19 +1179,21 @@
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <v>6</v>
-      </c>
-      <c r="F29" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="F29" s="2">
+        <v>57</v>
+      </c>
       <c r="G29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2">
-        <v>45991.33342792824</v>
+        <v>45991.3334181713</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -1152,83 +1205,91 @@
         <v>0</v>
       </c>
       <c r="E30" s="2">
-        <v>6</v>
-      </c>
-      <c r="F30" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="F30" s="2">
+        <v>57</v>
+      </c>
       <c r="G30" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H30" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2">
-        <v>45992.33342291666</v>
+        <v>45992.33341655093</v>
       </c>
       <c r="B31" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C31" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31" s="2">
-        <v>6</v>
-      </c>
-      <c r="F31" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F31" s="2">
+        <v>57</v>
+      </c>
       <c r="G31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H31" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2">
-        <v>45993.33341936343</v>
+        <v>45993.33341288195</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
       </c>
       <c r="C32" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D32" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2">
-        <v>6</v>
-      </c>
-      <c r="F32" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F32" s="2">
+        <v>57</v>
+      </c>
       <c r="G32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H32" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2">
-        <v>45994.33344841435</v>
+        <v>45994.33343938657</v>
       </c>
       <c r="B33" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C33" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D33" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2">
-        <v>18</v>
-      </c>
-      <c r="F33" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="F33" s="2">
+        <v>57</v>
+      </c>
       <c r="G33" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H33" s="2">
         <v>16</v>
@@ -1236,123 +1297,137 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2">
-        <v>45995.33342951389</v>
+        <v>45995.33342202546</v>
       </c>
       <c r="B34" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C34" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D34" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E34" s="2">
-        <v>21</v>
-      </c>
-      <c r="F34" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F34" s="2">
+        <v>60</v>
+      </c>
       <c r="G34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="2">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2">
-        <v>45996.33342646991</v>
+        <v>45996.33342037037</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
       </c>
       <c r="C35" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D35" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E35" s="2">
-        <v>21</v>
-      </c>
-      <c r="F35" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="F35" s="2">
+        <v>60</v>
+      </c>
       <c r="G35" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H35" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2">
-        <v>45997.33345454861</v>
+        <v>45997.33344641203</v>
       </c>
       <c r="B36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E36" s="2">
-        <v>21</v>
-      </c>
-      <c r="F36" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F36" s="2">
+        <v>60</v>
+      </c>
       <c r="G36" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H36" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2">
-        <v>45998.33342789352</v>
+        <v>45998.33342133102</v>
       </c>
       <c r="B37" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C37" s="2">
-        <v>3</v>
-      </c>
-      <c r="D37" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
       <c r="E37" s="2">
-        <v>21</v>
-      </c>
-      <c r="F37" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F37" s="2">
+        <v>60</v>
+      </c>
       <c r="G37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H37" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2">
-        <v>45999.33342905092</v>
+        <v>45999.33342280093</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
       </c>
       <c r="C38" s="2">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
       <c r="E38" s="2">
-        <v>21</v>
-      </c>
-      <c r="F38" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F38" s="2">
+        <v>60</v>
+      </c>
       <c r="G38" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H38" s="2">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2">
-        <v>46000.33342068287</v>
+        <v>46000.33341339121</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -1360,21 +1435,25 @@
       <c r="C39" s="2">
         <v>0</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
       <c r="E39" s="2">
-        <v>17</v>
-      </c>
-      <c r="F39" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F39" s="2">
+        <v>60</v>
+      </c>
       <c r="G39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="2">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2">
-        <v>46001.33341871528</v>
+        <v>46001.33341168981</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -1382,16 +1461,20 @@
       <c r="C40" s="2">
         <v>0</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
       <c r="E40" s="2">
-        <v>16</v>
-      </c>
-      <c r="F40" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F40" s="2">
+        <v>60</v>
+      </c>
       <c r="G40" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H40" s="2">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Actual)_Weather.xlsx
+++ b/reports/For Winter Ending (Actual)_Weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
   <si>
     <t>date</t>
   </si>
@@ -43,28 +43,25 @@
     <t>Sunny</t>
   </si>
   <si>
-    <t>Partly Sunny</t>
+    <t>Windy</t>
+  </si>
+  <si>
+    <t>Cloudy</t>
   </si>
   <si>
     <t>Mostly Sunny</t>
   </si>
   <si>
-    <t>Slight Chance Showers then Showers</t>
+    <t>Mostly Cloudy</t>
   </si>
   <si>
-    <t>Slight Chance Snow Showers then Partly Sunny</t>
+    <t>Snow &amp; Wind</t>
   </si>
   <si>
-    <t>Cloudy</t>
-  </si>
-  <si>
-    <t>Snow</t>
+    <t>Snow Showers</t>
   </si>
   <si>
     <t>Partly Cloudy</t>
-  </si>
-  <si>
-    <t>Mostly Cloudy</t>
   </si>
 </sst>
 </file>
@@ -436,7 +433,7 @@
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="46.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -468,7 +465,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>45962.33342103009</v>
+        <v>45962.33341539352</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -482,17 +479,19 @@
       <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>45963.33342369213</v>
+        <v>45963.33341565972</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -506,17 +505,19 @@
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="2">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>45964.33343229166</v>
+        <v>45964.33342584491</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -530,7 +531,9 @@
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
@@ -540,7 +543,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>45965.33345543982</v>
+        <v>45965.33344675926</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -554,17 +557,19 @@
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
       <c r="G5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>45966.33348032407</v>
+        <v>45966.33347010417</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -578,17 +583,19 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>45967.33342908565</v>
+        <v>45967.33341975694</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -602,17 +609,19 @@
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="2">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>45968.33342693287</v>
+        <v>45968.33342121528</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -626,17 +635,19 @@
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="2">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>45969.33342809028</v>
+        <v>45969.33342283565</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -650,17 +661,19 @@
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
       <c r="G9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>45970.33342017361</v>
+        <v>45970.33341496528</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -674,17 +687,19 @@
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>45971.33343005787</v>
+        <v>45971.33342461805</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -698,17 +713,19 @@
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>45972.33342658565</v>
+        <v>45972.33342079861</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -722,17 +739,19 @@
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <v>45973.33342403935</v>
+        <v>45973.33341878472</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -746,7 +765,9 @@
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
       <c r="G13" s="2" t="s">
         <v>10</v>
       </c>
@@ -756,7 +777,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <v>45974.33344872685</v>
+        <v>45974.33344325231</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -770,17 +791,19 @@
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
       <c r="G14" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H14" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>45976.33344140046</v>
+        <v>45976.33343491898</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -794,17 +817,19 @@
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
       <c r="G15" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H15" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2">
-        <v>45977.33341334491</v>
+        <v>45977.33340795139</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -818,233 +843,253 @@
       <c r="E16" s="2">
         <v>0</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
       <c r="G16" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H16" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>45978.33343012731</v>
+        <v>45978.33342434028</v>
       </c>
       <c r="B17" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
       <c r="G17" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H17" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>45979.33341640046</v>
+        <v>45979.33341079861</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2">
+        <v>3</v>
+      </c>
       <c r="G18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
-        <v>45980.33342959491</v>
+        <v>45980.33342210648</v>
       </c>
       <c r="B19" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2">
+        <v>9</v>
+      </c>
       <c r="G19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>45981.33354302083</v>
+        <v>45981.33352476852</v>
       </c>
       <c r="B20" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2">
+        <v>37</v>
+      </c>
       <c r="G20" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H20" s="2">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
-        <v>45982.33343677083</v>
+        <v>45982.3334303588</v>
       </c>
       <c r="B21" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C21" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="F21" s="2">
+        <v>47</v>
+      </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H21" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>45983.33343506944</v>
+        <v>45983.33342885417</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D22" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="F22" s="2">
+        <v>47</v>
+      </c>
       <c r="G22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2">
-        <v>45984.33341547454</v>
+        <v>45984.33340925926</v>
       </c>
       <c r="B23" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="F23" s="2">
+        <v>56</v>
+      </c>
       <c r="G23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2">
-        <v>45985.33342114584</v>
+        <v>45985.33341565972</v>
       </c>
       <c r="B24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="F24" s="2">
+        <v>57</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2">
-        <v>45986.33342103009</v>
+        <v>45986.33341547454</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="F25" s="2">
+        <v>57</v>
+      </c>
       <c r="G25" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H25" s="2">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2">
-        <v>45987.33344440972</v>
+        <v>45987.33343417824</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -1053,22 +1098,24 @@
         <v>0</v>
       </c>
       <c r="D26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="F26" s="2">
+        <v>57</v>
+      </c>
       <c r="G26" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H26" s="2">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2">
-        <v>45988.33342152778</v>
+        <v>45988.3334147338</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -1080,19 +1127,21 @@
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="F27" s="2">
+        <v>57</v>
+      </c>
       <c r="G27" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H27" s="2">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2">
-        <v>45989.33345181713</v>
+        <v>45989.33344471065</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -1104,19 +1153,21 @@
         <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>6</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="F28" s="2">
+        <v>57</v>
+      </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H28" s="2">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2">
-        <v>45990.33342337963</v>
+        <v>45990.33341678241</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -1128,19 +1179,21 @@
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <v>6</v>
-      </c>
-      <c r="F29" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="F29" s="2">
+        <v>57</v>
+      </c>
       <c r="G29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2">
-        <v>45991.33342792824</v>
+        <v>45991.3334181713</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -1152,83 +1205,91 @@
         <v>0</v>
       </c>
       <c r="E30" s="2">
-        <v>6</v>
-      </c>
-      <c r="F30" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="F30" s="2">
+        <v>57</v>
+      </c>
       <c r="G30" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H30" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2">
-        <v>45992.33342291666</v>
+        <v>45992.33341655093</v>
       </c>
       <c r="B31" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C31" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31" s="2">
-        <v>6</v>
-      </c>
-      <c r="F31" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F31" s="2">
+        <v>57</v>
+      </c>
       <c r="G31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H31" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2">
-        <v>45993.33341936343</v>
+        <v>45993.33341288195</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
       </c>
       <c r="C32" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D32" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2">
-        <v>6</v>
-      </c>
-      <c r="F32" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F32" s="2">
+        <v>57</v>
+      </c>
       <c r="G32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H32" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2">
-        <v>45994.33344841435</v>
+        <v>45994.33343938657</v>
       </c>
       <c r="B33" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C33" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D33" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2">
-        <v>18</v>
-      </c>
-      <c r="F33" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="F33" s="2">
+        <v>57</v>
+      </c>
       <c r="G33" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H33" s="2">
         <v>16</v>
@@ -1236,123 +1297,137 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2">
-        <v>45995.33342951389</v>
+        <v>45995.33342202546</v>
       </c>
       <c r="B34" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C34" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D34" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E34" s="2">
-        <v>21</v>
-      </c>
-      <c r="F34" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F34" s="2">
+        <v>60</v>
+      </c>
       <c r="G34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="2">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2">
-        <v>45996.33342646991</v>
+        <v>45996.33342037037</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
       </c>
       <c r="C35" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D35" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E35" s="2">
-        <v>21</v>
-      </c>
-      <c r="F35" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="F35" s="2">
+        <v>60</v>
+      </c>
       <c r="G35" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H35" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2">
-        <v>45997.33345454861</v>
+        <v>45997.33344641203</v>
       </c>
       <c r="B36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E36" s="2">
-        <v>21</v>
-      </c>
-      <c r="F36" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F36" s="2">
+        <v>60</v>
+      </c>
       <c r="G36" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H36" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2">
-        <v>45998.33342789352</v>
+        <v>45998.33342133102</v>
       </c>
       <c r="B37" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C37" s="2">
-        <v>3</v>
-      </c>
-      <c r="D37" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
       <c r="E37" s="2">
-        <v>21</v>
-      </c>
-      <c r="F37" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F37" s="2">
+        <v>60</v>
+      </c>
       <c r="G37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H37" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2">
-        <v>45999.33342905092</v>
+        <v>45999.33342280093</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
       </c>
       <c r="C38" s="2">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
       <c r="E38" s="2">
-        <v>21</v>
-      </c>
-      <c r="F38" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F38" s="2">
+        <v>60</v>
+      </c>
       <c r="G38" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H38" s="2">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2">
-        <v>46000.33342068287</v>
+        <v>46000.33341339121</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -1360,21 +1435,25 @@
       <c r="C39" s="2">
         <v>0</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
       <c r="E39" s="2">
-        <v>17</v>
-      </c>
-      <c r="F39" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F39" s="2">
+        <v>60</v>
+      </c>
       <c r="G39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="2">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2">
-        <v>46001.33341871528</v>
+        <v>46001.33341168981</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -1382,21 +1461,25 @@
       <c r="C40" s="2">
         <v>0</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
       <c r="E40" s="2">
-        <v>16</v>
-      </c>
-      <c r="F40" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F40" s="2">
+        <v>60</v>
+      </c>
       <c r="G40" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H40" s="2">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2">
-        <v>46002.33342994213</v>
+        <v>46002.33342167824</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -1404,16 +1487,20 @@
       <c r="C41" s="2">
         <v>0</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
       <c r="E41" s="2">
-        <v>16</v>
-      </c>
-      <c r="F41" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F41" s="2">
+        <v>60</v>
+      </c>
       <c r="G41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H41" s="2">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Actual)_Weather.xlsx
+++ b/reports/For Winter Ending (Actual)_Weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -43,25 +43,28 @@
     <t>Sunny</t>
   </si>
   <si>
-    <t>Windy</t>
+    <t>Partly Sunny</t>
+  </si>
+  <si>
+    <t>Mostly Sunny</t>
+  </si>
+  <si>
+    <t>Slight Chance Showers then Showers</t>
+  </si>
+  <si>
+    <t>Slight Chance Snow Showers then Partly Sunny</t>
   </si>
   <si>
     <t>Cloudy</t>
   </si>
   <si>
-    <t>Mostly Sunny</t>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>Partly Cloudy</t>
   </si>
   <si>
     <t>Mostly Cloudy</t>
-  </si>
-  <si>
-    <t>Snow &amp; Wind</t>
-  </si>
-  <si>
-    <t>Snow Showers</t>
-  </si>
-  <si>
-    <t>Partly Cloudy</t>
   </si>
 </sst>
 </file>
@@ -424,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -433,7 +436,7 @@
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -465,7 +468,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>45962.33341539352</v>
+        <v>45962.33342103009</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -479,19 +482,17 @@
       <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>45963.33341565972</v>
+        <v>45963.33342369213</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -505,19 +506,17 @@
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="2">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>45964.33342584491</v>
+        <v>45964.33343229166</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -531,9 +530,7 @@
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
@@ -543,7 +540,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>45965.33344675926</v>
+        <v>45965.33345543982</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -557,19 +554,17 @@
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H5" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>45966.33347010417</v>
+        <v>45966.33348032407</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -583,19 +578,17 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>45967.33341975694</v>
+        <v>45967.33342908565</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -609,19 +602,17 @@
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" s="2">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>45968.33342121528</v>
+        <v>45968.33342693287</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -635,19 +626,17 @@
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="2">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>45969.33342283565</v>
+        <v>45969.33342809028</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -661,19 +650,17 @@
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>45970.33341496528</v>
+        <v>45970.33342017361</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -687,19 +674,17 @@
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="2">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>45971.33342461805</v>
+        <v>45971.33343005787</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -713,19 +698,17 @@
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>45972.33342079861</v>
+        <v>45972.33342658565</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -739,19 +722,17 @@
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <v>45973.33341878472</v>
+        <v>45973.33342403935</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -765,9 +746,7 @@
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
         <v>10</v>
       </c>
@@ -777,7 +756,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <v>45974.33344325231</v>
+        <v>45974.33344872685</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -791,19 +770,17 @@
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H14" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>45976.33343491898</v>
+        <v>45976.33344140046</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -817,19 +794,17 @@
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H15" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2">
-        <v>45977.33340795139</v>
+        <v>45977.33341334491</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -843,253 +818,233 @@
       <c r="E16" s="2">
         <v>0</v>
       </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H16" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>45978.33342434028</v>
+        <v>45978.33343012731</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="2">
-        <v>3</v>
-      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H17" s="2">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>45979.33341079861</v>
+        <v>45979.33341640046</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
-      <c r="F18" s="2">
-        <v>3</v>
-      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="2">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
-        <v>45980.33342210648</v>
+        <v>45980.33342959491</v>
       </c>
       <c r="B19" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="2">
-        <v>9</v>
-      </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>45981.33352476852</v>
+        <v>45981.33354302083</v>
       </c>
       <c r="B20" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
       </c>
-      <c r="F20" s="2">
-        <v>37</v>
-      </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H20" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
-        <v>45982.3334303588</v>
+        <v>45982.33343677083</v>
       </c>
       <c r="B21" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>37</v>
-      </c>
-      <c r="F21" s="2">
-        <v>47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H21" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>45983.33342885417</v>
+        <v>45983.33343506944</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
       </c>
       <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="2">
-        <v>16</v>
-      </c>
-      <c r="E22" s="2">
-        <v>37</v>
-      </c>
-      <c r="F22" s="2">
-        <v>47</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="H22" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2">
-        <v>45984.33340925926</v>
+        <v>45984.33341547454</v>
       </c>
       <c r="B23" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C23" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>37</v>
-      </c>
-      <c r="F23" s="2">
-        <v>56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2">
-        <v>45985.33341565972</v>
+        <v>45985.33342114584</v>
       </c>
       <c r="B24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>42</v>
-      </c>
-      <c r="F24" s="2">
-        <v>57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2">
-        <v>45986.33341547454</v>
+        <v>45986.33342103009</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>40</v>
-      </c>
-      <c r="F25" s="2">
-        <v>57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H25" s="2">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2">
-        <v>45987.33343417824</v>
+        <v>45987.33344440972</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -1098,24 +1053,22 @@
         <v>0</v>
       </c>
       <c r="D26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>29</v>
-      </c>
-      <c r="F26" s="2">
-        <v>57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H26" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2">
-        <v>45988.3334147338</v>
+        <v>45988.33342152778</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -1127,21 +1080,19 @@
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>29</v>
-      </c>
-      <c r="F27" s="2">
-        <v>57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H27" s="2">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2">
-        <v>45989.33344471065</v>
+        <v>45989.33345181713</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -1153,21 +1104,19 @@
         <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>38</v>
-      </c>
-      <c r="F28" s="2">
-        <v>57</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H28" s="2">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2">
-        <v>45990.33341678241</v>
+        <v>45990.33342337963</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -1179,21 +1128,19 @@
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <v>38</v>
-      </c>
-      <c r="F29" s="2">
-        <v>57</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="2">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2">
-        <v>45991.3334181713</v>
+        <v>45991.33342792824</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -1205,91 +1152,83 @@
         <v>0</v>
       </c>
       <c r="E30" s="2">
-        <v>38</v>
-      </c>
-      <c r="F30" s="2">
-        <v>57</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H30" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2">
-        <v>45992.33341655093</v>
+        <v>45992.33342291666</v>
       </c>
       <c r="B31" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C31" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31" s="2">
-        <v>34</v>
-      </c>
-      <c r="F31" s="2">
-        <v>57</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H31" s="2">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2">
-        <v>45993.33341288195</v>
+        <v>45993.33341936343</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
       </c>
       <c r="C32" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D32" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E32" s="2">
-        <v>34</v>
-      </c>
-      <c r="F32" s="2">
-        <v>57</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H32" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2">
-        <v>45994.33343938657</v>
+        <v>45994.33344841435</v>
       </c>
       <c r="B33" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C33" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D33" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E33" s="2">
-        <v>33</v>
-      </c>
-      <c r="F33" s="2">
-        <v>57</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H33" s="2">
         <v>16</v>
@@ -1297,137 +1236,123 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2">
-        <v>45995.33342202546</v>
+        <v>45995.33342951389</v>
       </c>
       <c r="B34" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C34" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E34" s="2">
-        <v>34</v>
-      </c>
-      <c r="F34" s="2">
-        <v>60</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2">
-        <v>45996.33342037037</v>
+        <v>45996.33342646991</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
       </c>
       <c r="C35" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D35" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E35" s="2">
-        <v>35</v>
-      </c>
-      <c r="F35" s="2">
-        <v>60</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" s="2">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2">
-        <v>45997.33344641203</v>
+        <v>45997.33345454861</v>
       </c>
       <c r="B36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E36" s="2">
-        <v>34</v>
-      </c>
-      <c r="F36" s="2">
-        <v>60</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H36" s="2">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2">
-        <v>45998.33342133102</v>
+        <v>45998.33342789352</v>
       </c>
       <c r="B37" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C37" s="2">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="2">
-        <v>32</v>
-      </c>
-      <c r="F37" s="2">
-        <v>60</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H37" s="2">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2">
-        <v>45999.33342280093</v>
+        <v>45999.33342905092</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
       </c>
       <c r="C38" s="2">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="2">
-        <v>32</v>
-      </c>
-      <c r="F38" s="2">
-        <v>60</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H38" s="2">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2">
-        <v>46000.33341339121</v>
+        <v>46000.33342068287</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -1435,25 +1360,21 @@
       <c r="C39" s="2">
         <v>0</v>
       </c>
-      <c r="D39" s="2">
-        <v>0</v>
-      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="2">
-        <v>31</v>
-      </c>
-      <c r="F39" s="2">
-        <v>60</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="2">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2">
-        <v>46001.33341168981</v>
+        <v>46001.33341871528</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -1461,25 +1382,21 @@
       <c r="C40" s="2">
         <v>0</v>
       </c>
-      <c r="D40" s="2">
-        <v>0</v>
-      </c>
+      <c r="D40" s="2"/>
       <c r="E40" s="2">
-        <v>31</v>
-      </c>
-      <c r="F40" s="2">
-        <v>60</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H40" s="2">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2">
-        <v>46002.33342167824</v>
+        <v>46002.33342994213</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -1487,20 +1404,84 @@
       <c r="C41" s="2">
         <v>0</v>
       </c>
-      <c r="D41" s="2">
-        <v>0</v>
-      </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="2">
-        <v>28</v>
-      </c>
-      <c r="F41" s="2">
-        <v>60</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H41" s="2">
-        <v>43</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="2">
+        <v>46003.33343831018</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2">
+        <v>15</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="2">
+        <v>46004.33342488426</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2">
+        <v>15</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="2">
+        <v>46005.3334372338</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>15</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Actual)_Weather.xlsx
+++ b/reports/For Winter Ending (Actual)_Weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="16">
   <si>
     <t>date</t>
   </si>
@@ -43,28 +43,25 @@
     <t>Sunny</t>
   </si>
   <si>
-    <t>Partly Sunny</t>
+    <t>Windy</t>
+  </si>
+  <si>
+    <t>Cloudy</t>
   </si>
   <si>
     <t>Mostly Sunny</t>
   </si>
   <si>
-    <t>Slight Chance Showers then Showers</t>
+    <t>Mostly Cloudy</t>
   </si>
   <si>
-    <t>Slight Chance Snow Showers then Partly Sunny</t>
+    <t>Snow &amp; Wind</t>
   </si>
   <si>
-    <t>Cloudy</t>
-  </si>
-  <si>
-    <t>Snow</t>
+    <t>Snow Showers</t>
   </si>
   <si>
     <t>Partly Cloudy</t>
-  </si>
-  <si>
-    <t>Mostly Cloudy</t>
   </si>
 </sst>
 </file>
@@ -436,7 +433,7 @@
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="46.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -468,7 +465,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>45962.33342103009</v>
+        <v>45962.33341539352</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -482,17 +479,19 @@
       <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>45963.33342369213</v>
+        <v>45963.33341565972</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -506,17 +505,19 @@
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="2">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>45964.33343229166</v>
+        <v>45964.33342584491</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -530,7 +531,9 @@
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
@@ -540,7 +543,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>45965.33345543982</v>
+        <v>45965.33344675926</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -554,17 +557,19 @@
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
       <c r="G5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>45966.33348032407</v>
+        <v>45966.33347010417</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -578,17 +583,19 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>45967.33342908565</v>
+        <v>45967.33341975694</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -602,17 +609,19 @@
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="2">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>45968.33342693287</v>
+        <v>45968.33342121528</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -626,17 +635,19 @@
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="2">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>45969.33342809028</v>
+        <v>45969.33342283565</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -650,17 +661,19 @@
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
       <c r="G9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>45970.33342017361</v>
+        <v>45970.33341496528</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -674,17 +687,19 @@
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>45971.33343005787</v>
+        <v>45971.33342461805</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -698,17 +713,19 @@
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>45972.33342658565</v>
+        <v>45972.33342079861</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -722,17 +739,19 @@
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <v>45973.33342403935</v>
+        <v>45973.33341878472</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -746,7 +765,9 @@
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
       <c r="G13" s="2" t="s">
         <v>10</v>
       </c>
@@ -756,7 +777,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <v>45974.33344872685</v>
+        <v>45974.33344325231</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -770,17 +791,19 @@
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
       <c r="G14" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H14" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>45976.33344140046</v>
+        <v>45976.33343491898</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -794,17 +817,19 @@
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
       <c r="G15" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H15" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2">
-        <v>45977.33341334491</v>
+        <v>45977.33340795139</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -818,233 +843,253 @@
       <c r="E16" s="2">
         <v>0</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
       <c r="G16" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H16" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>45978.33343012731</v>
+        <v>45978.33342434028</v>
       </c>
       <c r="B17" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
       <c r="G17" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H17" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>45979.33341640046</v>
+        <v>45979.33341079861</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2">
+        <v>3</v>
+      </c>
       <c r="G18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
-        <v>45980.33342959491</v>
+        <v>45980.33342210648</v>
       </c>
       <c r="B19" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2">
+        <v>9</v>
+      </c>
       <c r="G19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>45981.33354302083</v>
+        <v>45981.33352476852</v>
       </c>
       <c r="B20" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2">
+        <v>37</v>
+      </c>
       <c r="G20" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H20" s="2">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
-        <v>45982.33343677083</v>
+        <v>45982.3334303588</v>
       </c>
       <c r="B21" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C21" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="F21" s="2">
+        <v>47</v>
+      </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H21" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>45983.33343506944</v>
+        <v>45983.33342885417</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D22" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="F22" s="2">
+        <v>47</v>
+      </c>
       <c r="G22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2">
-        <v>45984.33341547454</v>
+        <v>45984.33340925926</v>
       </c>
       <c r="B23" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="F23" s="2">
+        <v>56</v>
+      </c>
       <c r="G23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2">
-        <v>45985.33342114584</v>
+        <v>45985.33341565972</v>
       </c>
       <c r="B24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="F24" s="2">
+        <v>57</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2">
-        <v>45986.33342103009</v>
+        <v>45986.33341547454</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="F25" s="2">
+        <v>57</v>
+      </c>
       <c r="G25" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H25" s="2">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2">
-        <v>45987.33344440972</v>
+        <v>45987.33343417824</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -1053,22 +1098,24 @@
         <v>0</v>
       </c>
       <c r="D26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="F26" s="2">
+        <v>57</v>
+      </c>
       <c r="G26" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H26" s="2">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2">
-        <v>45988.33342152778</v>
+        <v>45988.3334147338</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -1080,19 +1127,21 @@
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="F27" s="2">
+        <v>57</v>
+      </c>
       <c r="G27" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H27" s="2">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2">
-        <v>45989.33345181713</v>
+        <v>45989.33344471065</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -1104,19 +1153,21 @@
         <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>6</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="F28" s="2">
+        <v>57</v>
+      </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H28" s="2">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2">
-        <v>45990.33342337963</v>
+        <v>45990.33341678241</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -1128,19 +1179,21 @@
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <v>6</v>
-      </c>
-      <c r="F29" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="F29" s="2">
+        <v>57</v>
+      </c>
       <c r="G29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2">
-        <v>45991.33342792824</v>
+        <v>45991.3334181713</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -1152,83 +1205,91 @@
         <v>0</v>
       </c>
       <c r="E30" s="2">
-        <v>6</v>
-      </c>
-      <c r="F30" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="F30" s="2">
+        <v>57</v>
+      </c>
       <c r="G30" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H30" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2">
-        <v>45992.33342291666</v>
+        <v>45992.33341655093</v>
       </c>
       <c r="B31" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C31" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31" s="2">
-        <v>6</v>
-      </c>
-      <c r="F31" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F31" s="2">
+        <v>57</v>
+      </c>
       <c r="G31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H31" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2">
-        <v>45993.33341936343</v>
+        <v>45993.33341288195</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
       </c>
       <c r="C32" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D32" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2">
-        <v>6</v>
-      </c>
-      <c r="F32" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F32" s="2">
+        <v>57</v>
+      </c>
       <c r="G32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H32" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2">
-        <v>45994.33344841435</v>
+        <v>45994.33343938657</v>
       </c>
       <c r="B33" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C33" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D33" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2">
-        <v>18</v>
-      </c>
-      <c r="F33" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="F33" s="2">
+        <v>57</v>
+      </c>
       <c r="G33" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H33" s="2">
         <v>16</v>
@@ -1236,123 +1297,137 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2">
-        <v>45995.33342951389</v>
+        <v>45995.33342202546</v>
       </c>
       <c r="B34" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C34" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D34" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E34" s="2">
-        <v>21</v>
-      </c>
-      <c r="F34" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F34" s="2">
+        <v>60</v>
+      </c>
       <c r="G34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="2">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2">
-        <v>45996.33342646991</v>
+        <v>45996.33342037037</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
       </c>
       <c r="C35" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D35" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E35" s="2">
-        <v>21</v>
-      </c>
-      <c r="F35" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="F35" s="2">
+        <v>60</v>
+      </c>
       <c r="G35" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H35" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2">
-        <v>45997.33345454861</v>
+        <v>45997.33344641203</v>
       </c>
       <c r="B36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E36" s="2">
-        <v>21</v>
-      </c>
-      <c r="F36" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F36" s="2">
+        <v>60</v>
+      </c>
       <c r="G36" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H36" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2">
-        <v>45998.33342789352</v>
+        <v>45998.33342133102</v>
       </c>
       <c r="B37" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C37" s="2">
-        <v>3</v>
-      </c>
-      <c r="D37" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
       <c r="E37" s="2">
-        <v>21</v>
-      </c>
-      <c r="F37" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F37" s="2">
+        <v>60</v>
+      </c>
       <c r="G37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H37" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2">
-        <v>45999.33342905092</v>
+        <v>45999.33342280093</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
       </c>
       <c r="C38" s="2">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
       <c r="E38" s="2">
-        <v>21</v>
-      </c>
-      <c r="F38" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F38" s="2">
+        <v>60</v>
+      </c>
       <c r="G38" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H38" s="2">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2">
-        <v>46000.33342068287</v>
+        <v>46000.33341339121</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -1360,21 +1435,25 @@
       <c r="C39" s="2">
         <v>0</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
       <c r="E39" s="2">
-        <v>17</v>
-      </c>
-      <c r="F39" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F39" s="2">
+        <v>60</v>
+      </c>
       <c r="G39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="2">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2">
-        <v>46001.33341871528</v>
+        <v>46001.33341168981</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -1382,21 +1461,25 @@
       <c r="C40" s="2">
         <v>0</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
       <c r="E40" s="2">
-        <v>16</v>
-      </c>
-      <c r="F40" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F40" s="2">
+        <v>60</v>
+      </c>
       <c r="G40" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H40" s="2">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2">
-        <v>46002.33342994213</v>
+        <v>46002.33342167824</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -1404,21 +1487,25 @@
       <c r="C41" s="2">
         <v>0</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
       <c r="E41" s="2">
-        <v>16</v>
-      </c>
-      <c r="F41" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F41" s="2">
+        <v>60</v>
+      </c>
       <c r="G41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H41" s="2">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2">
-        <v>46003.33343831018</v>
+        <v>46003.33343202547</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
@@ -1426,21 +1513,25 @@
       <c r="C42" s="2">
         <v>0</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
       <c r="E42" s="2">
-        <v>15</v>
-      </c>
-      <c r="F42" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F42" s="2">
+        <v>60</v>
+      </c>
       <c r="G42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H42" s="2">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2">
-        <v>46004.33342488426</v>
+        <v>46004.33341840278</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
@@ -1448,21 +1539,25 @@
       <c r="C43" s="2">
         <v>0</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
       <c r="E43" s="2">
-        <v>15</v>
-      </c>
-      <c r="F43" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F43" s="2">
+        <v>60</v>
+      </c>
       <c r="G43" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H43" s="2">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2">
-        <v>46005.3334372338</v>
+        <v>46005.33343055555</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
@@ -1474,14 +1569,16 @@
         <v>0</v>
       </c>
       <c r="E44" s="2">
-        <v>15</v>
-      </c>
-      <c r="F44" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F44" s="2">
+        <v>60</v>
+      </c>
       <c r="G44" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H44" s="2">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
